--- a/eagle projects/Z+ Sun Sensor Board/CAM outputs/CAMOutputs/2021.02.14_SUN_SENSE_Z_PLUS_REV_A/BillOfMaterials/BOM_2021.02.14_SUN_SENSE_Z_PLUS_REV_A.xlsx
+++ b/eagle projects/Z+ Sun Sensor Board/CAM outputs/CAMOutputs/2021.02.14_SUN_SENSE_Z_PLUS_REV_A/BillOfMaterials/BOM_2021.02.14_SUN_SENSE_Z_PLUS_REV_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\EAGLE\projects\adcs_hardware\eagle projects\Z+ Sun Sensor Board\CAM outputs\CAMOutputs\2021.02.14_SUN_SENSE_Z_PLUS_REV_A\BillOfMaterials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FE1E65-63AD-43FC-98B6-2222F1680078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE2C9D-2EF3-4675-BBCB-F4A02D17AD3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1005" windowWidth="29040" windowHeight="15840" xr2:uid="{B5569873-42A2-496E-A580-B589B284F195}"/>
+    <workbookView xWindow="-11340" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{B5569873-42A2-496E-A580-B589B284F195}"/>
   </bookViews>
   <sheets>
     <sheet name="ZPlusSunSensorBoard" sheetId="2" r:id="rId1"/>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,8 +341,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +362,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -365,18 +377,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -764,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F22CE5B-8FD6-447E-8A5C-41F8129F8CB3}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,13 +1173,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
